--- a/src/main/resources/userfiles/root/root.xlsx
+++ b/src/main/resources/userfiles/root/root.xlsx
@@ -6,13 +6,14 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="mars" r:id="rId3" sheetId="1"/>
+    <sheet name="March" r:id="rId3" sheetId="1"/>
+    <sheet name="April" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>Category</t>
   </si>
@@ -54,6 +55,42 @@
   </si>
   <si>
     <t>Savings</t>
+  </si>
+  <si>
+    <t>rfrg</t>
+  </si>
+  <si>
+    <t>2023-03-22</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>grd</t>
+  </si>
+  <si>
+    <t>2023-04-19</t>
+  </si>
+  <si>
+    <t>547.0</t>
+  </si>
+  <si>
+    <t>wasd</t>
+  </si>
+  <si>
+    <t>321.0</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>fgd</t>
+  </si>
+  <si>
+    <t>fes</t>
+  </si>
+  <si>
+    <t>5432.0</t>
   </si>
 </sst>
 </file>
@@ -98,7 +135,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -155,6 +192,121 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/userfiles/root/root.xlsx
+++ b/src/main/resources/userfiles/root/root.xlsx
@@ -6,8 +6,8 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="March" r:id="rId3" sheetId="1"/>
-    <sheet name="April" r:id="rId4" sheetId="2"/>
+    <sheet name="mars" r:id="rId3" sheetId="1"/>
+    <sheet name="april" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>

--- a/src/main/resources/userfiles/root/root.xlsx
+++ b/src/main/resources/userfiles/root/root.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>Category</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>5432.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly total: </t>
   </si>
 </sst>
 </file>
@@ -135,7 +138,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -260,6 +263,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7514.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -267,7 +278,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -307,6 +318,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="n">
+        <v>547.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
